--- a/reconstruction-tools-assessment/supplementary material/S24_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S24_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7874C1FD-8DD2-4A87-ABD3-55DCB1583D06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="4476" yWindow="1320" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S24 Table" sheetId="1" r:id="rId1"/>
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,10 +543,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -651,7 +654,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -660,13 +663,13 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F4">
-        <v>759</v>
+        <v>722</v>
       </c>
       <c r="G4">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="H4">
         <v>379</v>
@@ -749,13 +752,13 @@
         <v>286</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -838,13 +841,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -918,7 +921,7 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>4.7808764940239043E-2</v>
+        <v>4.704944178628389E-2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -927,13 +930,13 @@
         <v>1.171875E-2</v>
       </c>
       <c r="E7">
-        <v>0.46613896218117856</v>
+        <v>0.45438596491228073</v>
       </c>
       <c r="F7">
-        <v>0.53114065780265918</v>
+        <v>0.48816768086544965</v>
       </c>
       <c r="G7">
-        <v>0.53701117318435754</v>
+        <v>0.49544863459037713</v>
       </c>
       <c r="H7">
         <v>0.37937937937937938</v>
@@ -1007,7 +1010,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.35776892430278884</v>
+        <v>0.35805422647527912</v>
       </c>
       <c r="C8">
         <v>0.24140624999999999</v>
@@ -1016,13 +1019,13 @@
         <v>0.22343750000000001</v>
       </c>
       <c r="E8">
-        <v>3.5180299032541778E-3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.4492652204338699E-2</v>
+        <v>6.7613252197430695E-3</v>
       </c>
       <c r="G8">
-        <v>2.4441340782122904E-2</v>
+        <v>9.7529258777633299E-3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1096,7 +1099,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>7.9681274900398409E-4</v>
+        <v>7.9744816586921851E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1105,13 +1108,13 @@
         <v>7.8125000000000004E-4</v>
       </c>
       <c r="E9">
-        <v>2.6385224274406332E-3</v>
+        <v>1.7543859649122807E-3</v>
       </c>
       <c r="F9">
-        <v>4.8985304408677398E-3</v>
+        <v>2.0283975659229209E-3</v>
       </c>
       <c r="G9">
-        <v>4.8882681564245811E-3</v>
+        <v>1.9505851755526658E-3</v>
       </c>
       <c r="H9">
         <v>4.004004004004004E-3</v>
@@ -1372,13 +1375,13 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -1464,10 +1467,10 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>9</v>
@@ -1550,13 +1553,13 @@
         <v>104.50000000000023</v>
       </c>
       <c r="E14">
-        <v>54.639999999996689</v>
+        <v>53.799999999997453</v>
       </c>
       <c r="F14">
-        <v>68.470000000000255</v>
+        <v>61.840000000000146</v>
       </c>
       <c r="G14">
-        <v>68.260000000000446</v>
+        <v>64</v>
       </c>
       <c r="H14">
         <v>80</v>
@@ -1986,7 +1989,7 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <v>35.850000000000136</v>
+        <v>35.880000000000109</v>
       </c>
       <c r="C19">
         <v>43</v>
@@ -1995,13 +1998,13 @@
         <v>42.400000000000091</v>
       </c>
       <c r="E19">
-        <v>33.259999999999764</v>
+        <v>33.199999999999818</v>
       </c>
       <c r="F19">
-        <v>31.630000000000109</v>
+        <v>34.420000000000073</v>
       </c>
       <c r="G19">
-        <v>31.720000000000255</v>
+        <v>33.239999999999782</v>
       </c>
       <c r="H19">
         <v>44.629999999999882</v>
@@ -2262,13 +2265,13 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>5.8000000000000682</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2342,7 +2345,7 @@
         <v>48</v>
       </c>
       <c r="B23">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -2351,13 +2354,13 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>7.0499999999999545</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>7.8999999999998636</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <v>7.5499999999999545</v>
@@ -2431,7 +2434,7 @@
         <v>49</v>
       </c>
       <c r="B24">
-        <v>27.950000000000045</v>
+        <v>27.960000000000036</v>
       </c>
       <c r="C24">
         <v>29.700000000000045</v>
@@ -2440,13 +2443,13 @@
         <v>29</v>
       </c>
       <c r="E24">
-        <v>23.259999999999764</v>
+        <v>25.099999999999909</v>
       </c>
       <c r="F24">
-        <v>24.420000000000073</v>
+        <v>25.420000000000073</v>
       </c>
       <c r="G24">
-        <v>24.360000000000127</v>
+        <v>25.239999999999782</v>
       </c>
       <c r="H24">
         <v>25</v>
@@ -2802,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>7</v>
@@ -2888,10 +2891,10 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H29">
         <v>8</v>
